--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_177.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_177.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,43 +488,48 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06976744186046512</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(0.36, 122.64)]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(1.92, 149.88)]</t>
+          <t>[('0:00:12.780000', '0:00:16.740000'), ('0:00:30.020000', '0:00:32.120000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:12.540000', '0:00:25.940000'), ('0:01:09.240000', '0:01:15.880000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
@@ -528,677 +538,638 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_95</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_138</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09823284823284824</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['F#:min', 'B', 'E']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(14.9, 56.28)]</t>
+          <t>[['F:min/5', 'Bb', 'Eb']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(13.52, 51.46)]</t>
+          <t>[('0:00:43.926916', '0:00:52.959478')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:23.563446', '0:00:27.290249')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:1H7gMYGykdtwZOV6s1N0by</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_139</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_269</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4307692307692308</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(10.24, 21.02)]</t>
+          <t>[['E', 'A:min', 'E', 'A:min', 'E', 'A:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(12.78, 16.74)]</t>
+          <t>[('0:00:00.660000', '0:00:08.220000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:41.820000', '0:00:47.891000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_159</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.39375</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(1.5, 4.8)]</t>
+          <t>[['D/5', 'A', 'D'], ['A', 'D', 'A/3']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(41.3, 43.48)]</t>
+          <t>[('0:02:37.160000', '0:02:40.380000'), ('0:02:34.020000', '0:02:39.240000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:12.743000', '0:00:16.216000'), ('0:00:13.527000', '0:00:17.058000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_77</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_144</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(4.86, 9.64)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(9.74, 27.08)]</t>
+          <t>[('0:00:48.460000', '0:01:01.580000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.220000', '0:00:07.720000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_192</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_25</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(7.7, 18.64)]</t>
+          <t>[('0:00:17.320000', '0:01:02.460000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:14.580000', '0:00:55.620000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>schubert-winterreise_143</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
-        </is>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.09779367918902802</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(1.66, 97.0)]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(0.28, 102.52)]</t>
+          <t>[('0:00:35.140000', '0:00:42.320000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>[('0:01:42.160000', '0:01:53.900000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_3</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(41.32, 46.64)]</t>
+          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(28.02, 30.1)]</t>
+          <t>[('0:00:25.180000', '0:00:48.160000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:00.480000', '0:00:09.640000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_14</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_266</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1183035714285714</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A', 'A/7', 'A/b7'], ['G', 'A', 'A/7']]</t>
-        </is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4166666666666666</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A', 'A', 'A/b7'], ['G', 'A', 'A/b7']]</t>
+          <t>[['F#/5', 'C#', 'F#/5'], ['C#', 'F#/5', 'C#']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(84.787426, 86.815269), (83.103979, 86.183398)]</t>
+          <t>[['F/2', 'C', 'F'], ['C', 'F/5', 'C']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(36.173061, 41.86195), (43.998185, 47.539229)]</t>
+          <t>[('0:01:00.391566', '0:02:07.006105'), ('0:00:31.469410', '0:01:58.925813')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:6Pq9MmkDQYZiiCDpxnvrf6</t>
-        </is>
-      </c>
+          <t>[('0:00:57.758000', '0:01:04.527000'), ('0:00:05.121000', '0:00:12.601000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2753623188405797</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
+          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(96.74, 108.82)]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(84.16, 92.42)]</t>
+          <t>[('0:00:14.520000', '0:00:28.300000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>[('0:00:01.360000', '0:00:06.460000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(120.22, 121.92)]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(66.1, 84.78)]</t>
+          <t>[('0:01:33', '0:01:43.280000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:01:46.960000', '0:01:59.340000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_139</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_211</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'B:maj', 'B:(3,#5,7)/A#', 'G#:min', 'G#:hdim7/F#', 'C#:7/F', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(111.46, 124.8)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(93.0, 103.28)]</t>
+          <t>[('0:00:00.660000', '0:00:13.920000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:00.240000', '0:00:13.680000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_64</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(37.54, 42.72)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(36.6, 39.0)]</t>
+          <t>[('0:00:00.380000', '0:02:22.380000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:00.820000', '0:02:25.840000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_69</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(36.28, 38.0), (36.14, 37.58), (9.62, 14.18)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(10.76, 23.6), (47.14, 55.2), (0.36, 5.6)]</t>
+          <t>[('0:01:21.620000', '0:01:43.560000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:01:30.780000', '0:01:53.600000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_56</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min', 'C:min', 'G:7', 'C:min', 'C:min', 'C:min/G', 'G:7', 'C:(3,5,b7,b9)/E', 'F:min', 'C:maj/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'D#:maj/A#', 'A#:7', 'D#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:7', 'D#:maj', 'C:min/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(1.54, 138.86)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(0.36, 147.72)]</t>
+          <t>[('0:00:21.880000', '0:00:24.860000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_118</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(31.74, 33.88)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(41.32, 46.64)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:58.680000', '0:01:01.260000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
